--- a/data/trans_orig/P37A$medicoedad-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P37A$medicoedad-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>162185</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>142608</v>
+        <v>141476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>185108</v>
+        <v>186846</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1571979971059425</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.138223221494422</v>
+        <v>0.1371258347679713</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.179416606983128</v>
+        <v>0.1811010482637232</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>270</v>
@@ -765,19 +765,19 @@
         <v>283214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>252437</v>
+        <v>253657</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>311911</v>
+        <v>316316</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2153531842438517</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1919508737711229</v>
+        <v>0.1928787219641638</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2371746587644529</v>
+        <v>0.2405240486482959</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>444</v>
@@ -786,19 +786,19 @@
         <v>445398</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>409217</v>
+        <v>408988</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>483114</v>
+        <v>486066</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1897868266747061</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1743699372276327</v>
+        <v>0.1742720847763397</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2058577801073718</v>
+        <v>0.2071154901015974</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>74428</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>59428</v>
+        <v>59276</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90737</v>
+        <v>92847</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0721396957578011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05760103656629611</v>
+        <v>0.05745356619026477</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08794752807366026</v>
+        <v>0.08999225936684146</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>65</v>
@@ -836,19 +836,19 @@
         <v>65208</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>52218</v>
+        <v>51156</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83448</v>
+        <v>82278</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04958364852893023</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03970602185557954</v>
+        <v>0.03889849897635232</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06345292840203862</v>
+        <v>0.06256326886555551</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>141</v>
@@ -857,19 +857,19 @@
         <v>139636</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>119721</v>
+        <v>118750</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>163859</v>
+        <v>161786</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05949980557666392</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05101365651002225</v>
+        <v>0.05060010396565368</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06982111492562372</v>
+        <v>0.06893776541778288</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6888</v>
+        <v>6107</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.001839032202151648</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.006676502355361569</v>
+        <v>0.005918789137796034</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -907,19 +907,19 @@
         <v>3004</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8203</v>
+        <v>8183</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.002284201268396524</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.0007270637578016524</v>
+        <v>0.0007238030490125942</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.006237728481381253</v>
+        <v>0.006222030958253798</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>5</v>
@@ -928,19 +928,19 @@
         <v>4901</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1810</v>
+        <v>1827</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10973</v>
+        <v>10928</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.002088494710022815</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0007714264274029707</v>
+        <v>0.0007785575751063194</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.004675687984674735</v>
+        <v>0.004656605887082963</v>
       </c>
     </row>
     <row r="7">
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>8204</v>
+        <v>7257</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.001756830094763103</v>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.006238505009564467</v>
+        <v>0.005518362665613852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8542</v>
+        <v>7874</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0009844871860482474</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.003639928437472576</v>
+        <v>0.003355249715140682</v>
       </c>
     </row>
     <row r="8">
@@ -1020,19 +1020,19 @@
         <v>5850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1975</v>
+        <v>2272</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12541</v>
+        <v>12713</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005670359430717266</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001914333983633063</v>
+        <v>0.0022022685105572</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0121557083979604</v>
+        <v>0.01232205700024455</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -1041,19 +1041,19 @@
         <v>2821</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>8297</v>
+        <v>7643</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.002145042216369185</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0006821523945218539</v>
+        <v>0.000680113162300329</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.00630892190497347</v>
+        <v>0.005811858553675222</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>9</v>
@@ -1062,19 +1062,19 @@
         <v>8671</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>4637</v>
+        <v>3854</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>15802</v>
+        <v>15360</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.003694852729968849</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001975865913137519</v>
+        <v>0.001642158525822677</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.006733218643949737</v>
+        <v>0.006545057830642235</v>
       </c>
     </row>
     <row r="9">
@@ -1091,19 +1091,19 @@
         <v>33952</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24239</v>
+        <v>23355</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45901</v>
+        <v>47514</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03290770538940375</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02349383999113576</v>
+        <v>0.02263735845514503</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04448954472484652</v>
+        <v>0.04605284100637674</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -1112,19 +1112,19 @@
         <v>35105</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>24689</v>
+        <v>23547</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48006</v>
+        <v>47413</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0266933826127367</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01877361646498561</v>
+        <v>0.01790510503373188</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03650366342416678</v>
+        <v>0.03605231179266375</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -1133,19 +1133,19 @@
         <v>69056</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>53022</v>
+        <v>54851</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>87453</v>
+        <v>88841</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02942534180636106</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02259315076325002</v>
+        <v>0.02337253825623686</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03726410815473399</v>
+        <v>0.03785562337858858</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>32399</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22844</v>
+        <v>22810</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45446</v>
+        <v>45092</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01913227219812833</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01348970774002007</v>
+        <v>0.01346973391916975</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02683663661514915</v>
+        <v>0.02662797247233661</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>25</v>
@@ -1187,19 +1187,19 @@
         <v>29316</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>19513</v>
+        <v>19620</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42426</v>
+        <v>42374</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01846482340496552</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01229031540786818</v>
+        <v>0.01235780594988594</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02672197424399653</v>
+        <v>0.02668942113069686</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -1208,19 +1208,19 @@
         <v>61715</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>46711</v>
+        <v>45911</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>80222</v>
+        <v>77733</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01880930273349874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01423638787558916</v>
+        <v>0.01399268351637333</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0244496991341043</v>
+        <v>0.02369118613014126</v>
       </c>
     </row>
     <row r="11">
@@ -1237,19 +1237,19 @@
         <v>27585</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>19108</v>
+        <v>18601</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>39742</v>
+        <v>38538</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01628950982318135</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01128366488192958</v>
+        <v>0.01098436201134941</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02346878094216474</v>
+        <v>0.02275742219894498</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -1258,19 +1258,19 @@
         <v>26228</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17629</v>
+        <v>17369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37305</v>
+        <v>38117</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01652005975593285</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01110383758766102</v>
+        <v>0.01094002077950981</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0234963662681248</v>
+        <v>0.0240078139771409</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>54</v>
@@ -1279,19 +1279,19 @@
         <v>53813</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>40768</v>
+        <v>40215</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>70335</v>
+        <v>70307</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01640106982465846</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01242521548902648</v>
+        <v>0.01225661128779476</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02143664245239843</v>
+        <v>0.02142798533501365</v>
       </c>
     </row>
     <row r="12">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6396</v>
+        <v>6496</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001086951796577624</v>
@@ -1320,7 +1320,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.003776856903670419</v>
+        <v>0.003835927147056783</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1329,19 +1329,19 @@
         <v>2980</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>8071</v>
+        <v>8191</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.001876707507214948</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.000611378582236864</v>
+        <v>0.0006145091998836375</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.005083848995105951</v>
+        <v>0.005159329208897772</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>5</v>
@@ -1350,19 +1350,19 @@
         <v>4820</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1861</v>
+        <v>1920</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>10511</v>
+        <v>10621</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.001469103928195129</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.000567226288848944</v>
+        <v>0.0005853010440510718</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.003203424317298672</v>
+        <v>0.003237013782642123</v>
       </c>
     </row>
     <row r="13">
@@ -1379,19 +1379,19 @@
         <v>3563</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>876</v>
+        <v>1040</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9034</v>
+        <v>8873</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002104049638523133</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0005175077621845892</v>
+        <v>0.0006138613711516396</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.005334768791242218</v>
+        <v>0.005239477631618883</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -1403,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5502</v>
+        <v>4092</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0005550586755018408</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.003465307312481429</v>
+        <v>0.002577661003438711</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>5</v>
@@ -1421,19 +1421,19 @@
         <v>4444</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1650</v>
+        <v>1740</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10211</v>
+        <v>9967</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001354513813201729</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0005028132782742667</v>
+        <v>0.000530195530166804</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003112176176599254</v>
+        <v>0.003037586375246398</v>
       </c>
     </row>
     <row r="14">
@@ -1450,19 +1450,19 @@
         <v>15705</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8747</v>
+        <v>9040</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>25201</v>
+        <v>26510</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.009274444372206939</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005165347440935199</v>
+        <v>0.00533823394077896</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01488173790161333</v>
+        <v>0.01565476504141589</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -1471,19 +1471,19 @@
         <v>8148</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3239</v>
+        <v>3997</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15753</v>
+        <v>15683</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005131822391474519</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.002040357807217578</v>
+        <v>0.002517769779272077</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009922295857968699</v>
+        <v>0.009878292521565002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>23</v>
@@ -1492,19 +1492,19 @@
         <v>23853</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14568</v>
+        <v>15364</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>34889</v>
+        <v>36022</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.007269885495203222</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.004439923331843389</v>
+        <v>0.00468254088733175</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01063325273021117</v>
+        <v>0.01097864593587405</v>
       </c>
     </row>
     <row r="15">
@@ -1521,19 +1521,19 @@
         <v>33565</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>23597</v>
+        <v>23108</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48964</v>
+        <v>47533</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01982099908414205</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01393453135513596</v>
+        <v>0.01364558949674723</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02891420982874969</v>
+        <v>0.02806929931201074</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>30</v>
@@ -1542,19 +1542,19 @@
         <v>33382</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23259</v>
+        <v>22818</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46692</v>
+        <v>46928</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02102560607285095</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01464999126180719</v>
+        <v>0.01437215066181278</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02940877032701619</v>
+        <v>0.02955798801729818</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>61</v>
@@ -1563,19 +1563,19 @@
         <v>66947</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>50121</v>
+        <v>52244</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>83036</v>
+        <v>87469</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02040389215132223</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01527580858190546</v>
+        <v>0.0159228702054033</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02530740068946094</v>
+        <v>0.02665867226997534</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>12860</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6601</v>
+        <v>6383</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22333</v>
+        <v>22681</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02332290554209635</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01197068398119472</v>
+        <v>0.01157520922336969</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04050232130075035</v>
+        <v>0.04113297067359755</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>15</v>
@@ -1617,19 +1617,19 @@
         <v>15625</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9340</v>
+        <v>8716</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25041</v>
+        <v>25243</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03279741609253643</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01960577091535394</v>
+        <v>0.01829489347064563</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05256149854871998</v>
+        <v>0.05298590262569047</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1638,19 +1638,19 @@
         <v>28486</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>19058</v>
+        <v>18895</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>41184</v>
+        <v>40633</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02771450033113734</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0185419519984964</v>
+        <v>0.01838313696399105</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04006881117072884</v>
+        <v>0.03953325798524662</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>10660</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4915</v>
+        <v>5210</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21151</v>
+        <v>19978</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01933235853945676</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008912844016252862</v>
+        <v>0.00944931355248723</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03835726790927105</v>
+        <v>0.03623094592049966</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -1688,19 +1688,19 @@
         <v>2717</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7343</v>
+        <v>7243</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.00570201672989089</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.001668901064557896</v>
+        <v>0.001667404748460391</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.01541231384744009</v>
+        <v>0.0152032403531466</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>12</v>
@@ -1709,19 +1709,19 @@
         <v>13377</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7082</v>
+        <v>7175</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22688</v>
+        <v>22780</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01301446615387526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.006890353014485171</v>
+        <v>0.006980546135351716</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02207406982614995</v>
+        <v>0.02216327937292064</v>
       </c>
     </row>
     <row r="18">
@@ -1738,19 +1738,19 @@
         <v>3646</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10485</v>
+        <v>10817</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00661157909640861</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001651326747850713</v>
+        <v>0.001658801905077746</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01901558384336545</v>
+        <v>0.0196166283697446</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>6970</v>
+        <v>7052</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002593613610129819</v>
@@ -1771,7 +1771,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01463116539308144</v>
+        <v>0.01480306947426807</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -1780,19 +1780,19 @@
         <v>4881</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1232</v>
+        <v>1235</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12483</v>
+        <v>11740</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.004749184601394946</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001198508820516606</v>
+        <v>0.001202000067034737</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01214503092395441</v>
+        <v>0.01142179451965782</v>
       </c>
     </row>
     <row r="19">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4950</v>
+        <v>4967</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002058608299938851</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01039043788813115</v>
+        <v>0.01042540070601833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4927</v>
+        <v>4962</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0009541995266729701</v>
@@ -1855,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.004793996211200817</v>
+        <v>0.004827983784789373</v>
       </c>
     </row>
     <row r="20">
@@ -1872,19 +1872,19 @@
         <v>13299</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7526</v>
+        <v>7496</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>21927</v>
+        <v>21620</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02411830373221752</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01364798754718767</v>
+        <v>0.01359395691414987</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0397662989032737</v>
+        <v>0.03920852414255332</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>7</v>
@@ -1893,19 +1893,19 @@
         <v>6917</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2940</v>
+        <v>2950</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13819</v>
+        <v>12915</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0145186734413119</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006170371323507395</v>
+        <v>0.006192267702639231</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02900706985584739</v>
+        <v>0.02710854474994721</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>20</v>
@@ -1914,19 +1914,19 @@
         <v>20216</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>12695</v>
+        <v>13388</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>29368</v>
+        <v>31107</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01966871384176107</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01235186280982056</v>
+        <v>0.01302567743932051</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02857277716399386</v>
+        <v>0.03026488907226946</v>
       </c>
     </row>
     <row r="21">
@@ -1943,19 +1943,19 @@
         <v>23283</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14429</v>
+        <v>15254</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34516</v>
+        <v>35888</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.04222552442529063</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.02616689756050615</v>
+        <v>0.02766353048123572</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06259632733636812</v>
+        <v>0.06508462464403783</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>16</v>
@@ -1964,19 +1964,19 @@
         <v>17335</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9569</v>
+        <v>10927</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>27574</v>
+        <v>27568</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03638669429673043</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02008557015532985</v>
+        <v>0.02293544180556085</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05787826247401717</v>
+        <v>0.0578652484007493</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>39</v>
@@ -1985,19 +1985,19 @@
         <v>40619</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>29321</v>
+        <v>28906</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>55546</v>
+        <v>54548</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03951912858244791</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02852763593985784</v>
+        <v>0.02812398617550226</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.05404246658591397</v>
+        <v>0.05307175021609394</v>
       </c>
     </row>
     <row r="22">
@@ -2018,19 +2018,19 @@
         <v>207444</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>183112</v>
+        <v>180949</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>236190</v>
+        <v>234815</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06331185263379324</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05588560710907647</v>
+        <v>0.05522563835083841</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07208518335037416</v>
+        <v>0.07166536996176889</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>310</v>
@@ -2039,19 +2039,19 @@
         <v>328155</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>297503</v>
+        <v>294355</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>364110</v>
+        <v>365701</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.09711029986423836</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08803966563814594</v>
+        <v>0.08710788386777465</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1077504567253004</v>
+        <v>0.1082211288988326</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>527</v>
@@ -2060,19 +2060,19 @@
         <v>535599</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>489955</v>
+        <v>496565</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>579749</v>
+        <v>582847</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08047171932110088</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07361392191425796</v>
+        <v>0.07460706973572293</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08710515162361278</v>
+        <v>0.08757061138066542</v>
       </c>
     </row>
     <row r="23">
@@ -2089,19 +2089,19 @@
         <v>112673</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>94099</v>
+        <v>94313</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>133834</v>
+        <v>135415</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03438777897797791</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02871900396506423</v>
+        <v>0.0287844424725767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04084603057471007</v>
+        <v>0.04132856043287213</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>94</v>
@@ -2110,19 +2110,19 @@
         <v>94153</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>77388</v>
+        <v>76731</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>115498</v>
+        <v>113618</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.02786254673218759</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02290135013024068</v>
+        <v>0.02270688371739783</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03417908653994418</v>
+        <v>0.03362272209657618</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>207</v>
@@ -2131,19 +2131,19 @@
         <v>206826</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>178226</v>
+        <v>181109</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>233858</v>
+        <v>237188</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0310748423013894</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02677775560526552</v>
+        <v>0.0272110084014943</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03513625489128989</v>
+        <v>0.0356365604755111</v>
       </c>
     </row>
     <row r="24">
@@ -2160,19 +2160,19 @@
         <v>7384</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2955</v>
+        <v>2961</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>15283</v>
+        <v>14891</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.002253504906167719</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0009018086375246601</v>
+        <v>0.0009036121130945999</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.004664490144375697</v>
+        <v>0.004544747012059354</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -2181,19 +2181,19 @@
         <v>7219</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3060</v>
+        <v>2935</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>14400</v>
+        <v>14733</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002136367571967852</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.000905580355833224</v>
+        <v>0.0008686253391720767</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.004261483939172141</v>
+        <v>0.004359932161711474</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -2202,19 +2202,19 @@
         <v>14603</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8069</v>
+        <v>7971</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24381</v>
+        <v>23738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.002194032912520458</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001212373015355025</v>
+        <v>0.001197630879632291</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00366321851832855</v>
+        <v>0.003566588358439192</v>
       </c>
     </row>
     <row r="25">
@@ -2231,19 +2231,19 @@
         <v>3563</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>883</v>
+        <v>869</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8259</v>
+        <v>8169</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.001087433842314305</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0002693537033697703</v>
+        <v>0.0002652827796223801</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.002520631719592284</v>
+        <v>0.002493271250658491</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4</v>
@@ -2252,19 +2252,19 @@
         <v>4172</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>990</v>
+        <v>1313</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>9956</v>
+        <v>11112</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.00123473881142692</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0002929374524505126</v>
+        <v>0.0003885584790671905</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.002946339723928275</v>
+        <v>0.003288383968618526</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2273,19 +2273,19 @@
         <v>7735</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3425</v>
+        <v>3516</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15055</v>
+        <v>15213</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001162222296799086</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0005145551213557105</v>
+        <v>0.0005282195708414597</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002261977869129661</v>
+        <v>0.002285702454601631</v>
       </c>
     </row>
     <row r="26">
@@ -2302,19 +2302,19 @@
         <v>34855</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>24883</v>
+        <v>24455</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>49524</v>
+        <v>47631</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01063765081291071</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.007594317616826439</v>
+        <v>0.007463619510055118</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01511486307762316</v>
+        <v>0.01453702678998169</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -2323,19 +2323,19 @@
         <v>17885</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10725</v>
+        <v>10188</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27124</v>
+        <v>27106</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005292822955695911</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00317369465969739</v>
+        <v>0.003014961153749746</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008026624939411697</v>
+        <v>0.008021465553214775</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>52</v>
@@ -2344,19 +2344,19 @@
         <v>52740</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>39183</v>
+        <v>39640</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>69714</v>
+        <v>68350</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.007924019240694658</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.005887068611229953</v>
+        <v>0.005955740122549959</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01047421677160122</v>
+        <v>0.01026938833028391</v>
       </c>
     </row>
     <row r="27">
@@ -2373,19 +2373,19 @@
         <v>90800</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>72972</v>
+        <v>74068</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>112811</v>
+        <v>112643</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.02771220758758085</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02227103448889533</v>
+        <v>0.02260548657989828</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03442974265203021</v>
+        <v>0.03437869298486995</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>79</v>
@@ -2394,19 +2394,19 @@
         <v>85822</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>69473</v>
+        <v>68765</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>105878</v>
+        <v>105437</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.02539704821019888</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02055905311988722</v>
+        <v>0.02034960394628156</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.03133230507107263</v>
+        <v>0.03120167422214151</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>167</v>
@@ -2415,19 +2415,19 @@
         <v>176622</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>147054</v>
+        <v>152013</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>205217</v>
+        <v>206942</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02653677411263829</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02209433421305369</v>
+        <v>0.02283937826353471</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.03083307366561911</v>
+        <v>0.03109218256379285</v>
       </c>
     </row>
     <row r="28">
@@ -2687,19 +2687,19 @@
         <v>237637</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>211175</v>
+        <v>210985</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>269079</v>
+        <v>267148</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2438194066657214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2166694843662149</v>
+        <v>0.2164745713382097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2760797909797824</v>
+        <v>0.274098758714017</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>294</v>
@@ -2708,19 +2708,19 @@
         <v>315840</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>287115</v>
+        <v>287292</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>348979</v>
+        <v>348049</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2360894666269614</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.214617405246085</v>
+        <v>0.2147501801573528</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2608606650585535</v>
+        <v>0.2601661417471549</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>510</v>
@@ -2729,19 +2729,19 @@
         <v>553477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>508252</v>
+        <v>514482</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>597884</v>
+        <v>596568</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2393474683368732</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.21979026556406</v>
+        <v>0.2224845157825243</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2585512378604469</v>
+        <v>0.2579818450256512</v>
       </c>
     </row>
     <row r="5">
@@ -2758,19 +2758,19 @@
         <v>71405</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>54919</v>
+        <v>55796</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>90503</v>
+        <v>90634</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0732629953250362</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.05634751096572107</v>
+        <v>0.05724758400047829</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09285756751425477</v>
+        <v>0.0929916099547172</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>83</v>
@@ -2779,19 +2779,19 @@
         <v>86695</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>69517</v>
+        <v>70543</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>106260</v>
+        <v>107453</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06480393108262494</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05196365218068678</v>
+        <v>0.05273104666084326</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07942893679104215</v>
+        <v>0.08032105557224166</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>147</v>
@@ -2800,19 +2800,19 @@
         <v>158100</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>135351</v>
+        <v>136321</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>186253</v>
+        <v>187440</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06836924279627837</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05853177051913594</v>
+        <v>0.05895134278139189</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0805440964851276</v>
+        <v>0.08105713895387459</v>
       </c>
     </row>
     <row r="6">
@@ -2829,19 +2829,19 @@
         <v>4805</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1793</v>
+        <v>1716</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11002</v>
+        <v>11064</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.004929962079359807</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001840127753480369</v>
+        <v>0.001760240407941843</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.0112886301874079</v>
+        <v>0.01135194231994712</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -2850,19 +2850,19 @@
         <v>6543</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2257</v>
+        <v>2253</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13308</v>
+        <v>13424</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.004890695995473067</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.001687307965571271</v>
+        <v>0.001683998836294632</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.009947896097948241</v>
+        <v>0.01003464464972893</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -2871,19 +2871,19 @@
         <v>11348</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5778</v>
+        <v>6150</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>19202</v>
+        <v>20134</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.004907245796351608</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002498641287631712</v>
+        <v>0.002659354777192349</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.008303807751762059</v>
+        <v>0.008706908929079256</v>
       </c>
     </row>
     <row r="7">
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7040</v>
+        <v>5899</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0008763910207163963</v>
@@ -2925,7 +2925,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.005262556580758878</v>
+        <v>0.004409309988763358</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -2937,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5859</v>
+        <v>5868</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0005070112545437989</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.002533822079842637</v>
+        <v>0.002537762387610459</v>
       </c>
     </row>
     <row r="8">
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>6598</v>
+        <v>6183</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001925042563250273</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006770110930733065</v>
+        <v>0.006343439505252709</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>5667</v>
+        <v>6576</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0008113635980711274</v>
@@ -3009,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.002450594140804147</v>
+        <v>0.00284395909270286</v>
       </c>
     </row>
     <row r="9">
@@ -3026,19 +3026,19 @@
         <v>31963</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21880</v>
+        <v>21825</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>45336</v>
+        <v>45439</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03279472971190975</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02244970591652765</v>
+        <v>0.02239239545506325</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04651564611376225</v>
+        <v>0.04662130403095942</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>34</v>
@@ -3047,19 +3047,19 @@
         <v>34576</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23715</v>
+        <v>24632</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47250</v>
+        <v>46811</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02584518703309388</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01772687833354551</v>
+        <v>0.01841233711459376</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03531892949382183</v>
+        <v>0.03499101327653977</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>64</v>
@@ -3068,19 +3068,19 @@
         <v>66539</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>51897</v>
+        <v>50656</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>84879</v>
+        <v>83165</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02877426821834965</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02244267576174357</v>
+        <v>0.02190591513559277</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03670551317863449</v>
+        <v>0.0359642889517086</v>
       </c>
     </row>
     <row r="10">
@@ -3101,19 +3101,19 @@
         <v>62406</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>45861</v>
+        <v>46844</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>79507</v>
+        <v>82608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03177567969676061</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0233513456294497</v>
+        <v>0.02385205280117171</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04048286765921986</v>
+        <v>0.04206196242994933</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -3122,19 +3122,19 @@
         <v>46671</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33976</v>
+        <v>33655</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62916</v>
+        <v>61345</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02655053021354181</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01932855686651924</v>
+        <v>0.01914582832074687</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03579238182429043</v>
+        <v>0.03489862011686216</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>96</v>
@@ -3143,19 +3143,19 @@
         <v>109077</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89932</v>
+        <v>89251</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>132214</v>
+        <v>133066</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02930782000263869</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0241637694904343</v>
+        <v>0.0239809137008246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03552470891282334</v>
+        <v>0.03575341752812155</v>
       </c>
     </row>
     <row r="11">
@@ -3172,19 +3172,19 @@
         <v>48485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35067</v>
+        <v>35845</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>65010</v>
+        <v>65125</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02468730813500538</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0178552251492338</v>
+        <v>0.01825142611615131</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03310136270868764</v>
+        <v>0.03315998066282175</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>38</v>
@@ -3193,19 +3193,19 @@
         <v>42309</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30140</v>
+        <v>30645</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57634</v>
+        <v>58125</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02406907516707889</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01714638683061394</v>
+        <v>0.01743354652940787</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03278769023747951</v>
+        <v>0.03306687132564458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>83</v>
@@ -3214,19 +3214,19 @@
         <v>90794</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>72822</v>
+        <v>73194</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>112844</v>
+        <v>112526</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02439531414937432</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01956662297853727</v>
+        <v>0.01966648457441268</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03032001650122507</v>
+        <v>0.03023450285385505</v>
       </c>
     </row>
     <row r="12">
@@ -3243,19 +3243,19 @@
         <v>10301</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4999</v>
+        <v>4813</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>19685</v>
+        <v>20068</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005245253627653845</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002545141113384525</v>
+        <v>0.002450488945075214</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01002308824052428</v>
+        <v>0.01021793807409197</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>14</v>
@@ -3264,19 +3264,19 @@
         <v>15095</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>8101</v>
+        <v>8827</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>25394</v>
+        <v>26005</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.008587451871233625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.004608718306277551</v>
+        <v>0.005021359054039462</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01444645867238782</v>
+        <v>0.01479426764262053</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -3285,19 +3285,19 @@
         <v>25396</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>16776</v>
+        <v>15479</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38111</v>
+        <v>37937</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.006823787669901884</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004507417902776263</v>
+        <v>0.00415895223511381</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01023994557343002</v>
+        <v>0.0101933050382143</v>
       </c>
     </row>
     <row r="13">
@@ -3317,7 +3317,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7360</v>
+        <v>7215</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0009816513094430583</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.003747375733718626</v>
+        <v>0.003673767243535108</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>4</v>
@@ -3335,19 +3335,19 @@
         <v>4217</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>10676</v>
+        <v>9751</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002399283335003131</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0005818678523410361</v>
+        <v>0.0005812623494743708</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.006073767675235446</v>
+        <v>0.005547308329097942</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -3356,19 +3356,19 @@
         <v>6145</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2221</v>
+        <v>2197</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13277</v>
+        <v>13328</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.001651204773551987</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0005967321514794751</v>
+        <v>0.0005901948205202977</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.003567298115889433</v>
+        <v>0.003581111827426592</v>
       </c>
     </row>
     <row r="14">
@@ -3385,19 +3385,19 @@
         <v>27106</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17455</v>
+        <v>17890</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>41406</v>
+        <v>39546</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01380182560642474</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008887474464958012</v>
+        <v>0.009108963551025454</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02108283592869444</v>
+        <v>0.02013571037856221</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>17</v>
@@ -3406,19 +3406,19 @@
         <v>18352</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>11175</v>
+        <v>11355</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29326</v>
+        <v>30108</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01044047488160434</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.006357556871763922</v>
+        <v>0.006460042945813272</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01668358096721505</v>
+        <v>0.01712843649891593</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>41</v>
@@ -3427,19 +3427,19 @@
         <v>45458</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>31633</v>
+        <v>32413</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>60802</v>
+        <v>59725</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01221424576813814</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.008499562360898005</v>
+        <v>0.008708956290460637</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01633699057771244</v>
+        <v>0.01604764657207715</v>
       </c>
     </row>
     <row r="15">
@@ -3456,19 +3456,19 @@
         <v>59656</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>45238</v>
+        <v>45047</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>77547</v>
+        <v>76530</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03037552880272648</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02303423446610084</v>
+        <v>0.02293701194375206</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03948508921301547</v>
+        <v>0.03896740041276524</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>25</v>
@@ -3477,19 +3477,19 @@
         <v>26595</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17500</v>
+        <v>16681</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38262</v>
+        <v>38482</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01512974506976802</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.009955768002305456</v>
+        <v>0.009489712028120989</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02176678535763363</v>
+        <v>0.02189219389544262</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>81</v>
@@ -3498,19 +3498,19 @@
         <v>86251</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>68639</v>
+        <v>68538</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>106406</v>
+        <v>107224</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.02317488214166858</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01844260146768235</v>
+        <v>0.01841553547612271</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02859022696184046</v>
+        <v>0.0288099113663257</v>
       </c>
     </row>
     <row r="16">
@@ -3531,19 +3531,19 @@
         <v>14987</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8888</v>
+        <v>8020</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>26234</v>
+        <v>26021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03114559687859015</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01847075970764795</v>
+        <v>0.01666677800019517</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05451952623313664</v>
+        <v>0.05407747542184252</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>5</v>
@@ -3552,19 +3552,19 @@
         <v>5192</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1994</v>
+        <v>2001</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>11834</v>
+        <v>11430</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01131997667228854</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004348789634650117</v>
+        <v>0.004361919071708385</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02580340651470326</v>
+        <v>0.024922881747308</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -3573,19 +3573,19 @@
         <v>20178</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11981</v>
+        <v>12252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31596</v>
+        <v>32346</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02147063989149945</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01274780032148331</v>
+        <v>0.01303618466378067</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03361927252835448</v>
+        <v>0.03441723069074794</v>
       </c>
     </row>
     <row r="17">
@@ -3602,19 +3602,19 @@
         <v>5268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1819</v>
+        <v>1111</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13439</v>
+        <v>13960</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01094804977288841</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.003780524439704251</v>
+        <v>0.002308231799295529</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02792977253421792</v>
+        <v>0.02901279336414451</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -3623,19 +3623,19 @@
         <v>12403</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6392</v>
+        <v>6712</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>21620</v>
+        <v>22841</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0270428676847596</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01393643015753587</v>
+        <v>0.01463511394008159</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04714064773525006</v>
+        <v>0.04980313696035465</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>15</v>
@@ -3644,19 +3644,19 @@
         <v>17671</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10654</v>
+        <v>10249</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>31130</v>
+        <v>28711</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01880236501710538</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01133578943770667</v>
+        <v>0.01090527505481179</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.03312312011871574</v>
+        <v>0.03054976866157414</v>
       </c>
     </row>
     <row r="18">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9796</v>
+        <v>9315</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.004134320058986144</v>
@@ -3685,7 +3685,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02035742503942639</v>
+        <v>0.01935956359856419</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -3694,19 +3694,19 @@
         <v>4715</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1785</v>
+        <v>1047</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12976</v>
+        <v>12479</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01028108511351506</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003892014016334492</v>
+        <v>0.002282123790427826</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02829352484537847</v>
+        <v>0.02721017966180982</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>5</v>
@@ -3715,19 +3715,19 @@
         <v>6705</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1995</v>
+        <v>1975</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15126</v>
+        <v>15898</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.007133958249039685</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.002123106247828318</v>
+        <v>0.002101313289404055</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01609479266165122</v>
+        <v>0.01691666269678018</v>
       </c>
     </row>
     <row r="19">
@@ -3791,19 +3791,19 @@
         <v>17678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>9990</v>
+        <v>9654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>27489</v>
+        <v>27769</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03673870510095051</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02076218081564123</v>
+        <v>0.02006254938840131</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05712878210453662</v>
+        <v>0.05771043453542513</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>10</v>
@@ -3812,19 +3812,19 @@
         <v>12472</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>6048</v>
+        <v>6220</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>22595</v>
+        <v>22398</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02719352380952209</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01318647212008129</v>
+        <v>0.01356140797478832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04926567698057556</v>
+        <v>0.0488376993246988</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -3833,19 +3833,19 @@
         <v>30150</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19283</v>
+        <v>20460</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>43910</v>
+        <v>45283</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03208063047490681</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02051837935908938</v>
+        <v>0.02177070051603468</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04672232118112672</v>
+        <v>0.04818328817219714</v>
       </c>
     </row>
     <row r="21">
@@ -3862,19 +3862,19 @@
         <v>12769</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7110</v>
+        <v>6805</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>22295</v>
+        <v>21264</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02653729707326655</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01477620028716155</v>
+        <v>0.01414249024435526</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.0463345907061128</v>
+        <v>0.04419151181580279</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>6</v>
@@ -3883,19 +3883,19 @@
         <v>7085</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>2843</v>
+        <v>2994</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>15431</v>
+        <v>14306</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.01544771111195424</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.006199161142608994</v>
+        <v>0.006527523805991986</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03364584298825322</v>
+        <v>0.03119357955588345</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>18</v>
@@ -3904,19 +3904,19 @@
         <v>19854</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12067</v>
+        <v>11771</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>31341</v>
+        <v>31614</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.02112554873632228</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01283939441571788</v>
+        <v>0.01252476553233067</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03334826085407002</v>
+        <v>0.03363890183843476</v>
       </c>
     </row>
     <row r="22">
@@ -3937,19 +3937,19 @@
         <v>315030</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>281928</v>
+        <v>279499</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>353513</v>
+        <v>353425</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09211980725226208</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08244024744127415</v>
+        <v>0.08173019630069611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1033730184275042</v>
+        <v>0.1033472282362431</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>340</v>
@@ -3958,19 +3958,19 @@
         <v>367702</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>333193</v>
+        <v>332985</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>407521</v>
+        <v>407133</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1034547366928229</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09374543902485294</v>
+        <v>0.09368707478382259</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1146580553465501</v>
+        <v>0.1145488152884485</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>624</v>
@@ -3979,19 +3979,19 @@
         <v>682732</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>636435</v>
+        <v>632828</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>734838</v>
+        <v>730577</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0978965321473516</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09125808704282745</v>
+        <v>0.09074092588447308</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1053680609163792</v>
+        <v>0.1047569968142343</v>
       </c>
     </row>
     <row r="23">
@@ -4008,19 +4008,19 @@
         <v>125158</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101981</v>
+        <v>106052</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>149152</v>
+        <v>152045</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03659826611226077</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02982103131885814</v>
+        <v>0.0310112772746373</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04361459388209347</v>
+        <v>0.04446047571494173</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>132</v>
@@ -4029,19 +4029,19 @@
         <v>141406</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>119424</v>
+        <v>117599</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>168468</v>
+        <v>166314</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03978522710072351</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03360048881474077</v>
+        <v>0.03308710531216669</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04739930765600409</v>
+        <v>0.04679326896837253</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>245</v>
@@ -4050,19 +4050,19 @@
         <v>266564</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>234134</v>
+        <v>234088</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>299694</v>
+        <v>302999</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03822246650788502</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03357230182607192</v>
+        <v>0.03356578025033247</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04297290290496705</v>
+        <v>0.04344688220125423</v>
       </c>
     </row>
     <row r="24">
@@ -4079,19 +4079,19 @@
         <v>17096</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10049</v>
+        <v>9370</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>28602</v>
+        <v>28229</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.004999080815791019</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.002938612875843044</v>
+        <v>0.002739930720224786</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.008363680089316015</v>
+        <v>0.008254724096952923</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>24</v>
@@ -4100,19 +4100,19 @@
         <v>26353</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>16546</v>
+        <v>17151</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>39072</v>
+        <v>39434</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.007414552523606341</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004655338249061065</v>
+        <v>0.004825506405410533</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01099295788788016</v>
+        <v>0.01109499580252052</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -4121,19 +4121,19 @@
         <v>43449</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>31512</v>
+        <v>30775</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>58223</v>
+        <v>58544</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006230099996024286</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004518475552955539</v>
+        <v>0.004412876248097146</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008348588528496121</v>
+        <v>0.008394552235042466</v>
       </c>
     </row>
     <row r="25">
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6145</v>
+        <v>7739</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0005637556550198761</v>
@@ -4162,7 +4162,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.001797002571458021</v>
+        <v>0.002263051147598238</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>5</v>
@@ -4171,19 +4171,19 @@
         <v>5390</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1945</v>
+        <v>1981</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11711</v>
+        <v>11998</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.001516474472052714</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0005472705086277736</v>
+        <v>0.0005572973534038343</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.003294997345843113</v>
+        <v>0.003375667327817061</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4192,19 +4192,19 @@
         <v>7318</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3146</v>
+        <v>3069</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>14594</v>
+        <v>13899</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.001049298554711848</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.0004510498999134887</v>
+        <v>0.0004400255077594021</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.002092609507561629</v>
+        <v>0.00199297890784429</v>
       </c>
     </row>
     <row r="26">
@@ -4221,19 +4221,19 @@
         <v>46660</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>33655</v>
+        <v>34087</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>63791</v>
+        <v>63973</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01364426498474272</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.009841285424651954</v>
+        <v>0.009967610689915772</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01865359521464704</v>
+        <v>0.01870662334657473</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>27</v>
@@ -4242,19 +4242,19 @@
         <v>30824</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>21073</v>
+        <v>20310</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>45466</v>
+        <v>44218</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.008672507785559598</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005928951571252037</v>
+        <v>0.00571421354013673</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01279214963824767</v>
+        <v>0.01244100089800849</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>69</v>
@@ -4263,19 +4263,19 @@
         <v>77484</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>59526</v>
+        <v>60936</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>97480</v>
+        <v>97602</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01111046239378098</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008535355801582916</v>
+        <v>0.008737525806042291</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01397756539403258</v>
+        <v>0.01399506157634736</v>
       </c>
     </row>
     <row r="27">
@@ -4292,19 +4292,19 @@
         <v>104389</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>83679</v>
+        <v>84179</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>127809</v>
+        <v>125940</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03052494517541893</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.02446916483049278</v>
+        <v>0.02461524561416679</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03737342885617572</v>
+        <v>0.03682686284979002</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>65</v>
@@ -4313,19 +4313,19 @@
         <v>68256</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>52060</v>
+        <v>54013</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>84892</v>
+        <v>87613</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01920401971681415</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01464739600215669</v>
+        <v>0.01519682401269984</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02388489356810329</v>
+        <v>0.02465038695582922</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>163</v>
@@ -4334,19 +4334,19 @@
         <v>172644</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>148227</v>
+        <v>146597</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>201098</v>
+        <v>199318</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.02475535725913641</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02125424827306859</v>
+        <v>0.02102050396127704</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02883535885194822</v>
+        <v>0.02858013908339357</v>
       </c>
     </row>
     <row r="28">
@@ -4606,19 +4606,19 @@
         <v>182753</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>160492</v>
+        <v>159427</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>206194</v>
+        <v>206845</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2422658308578218</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2127564750618494</v>
+        <v>0.2113437877605834</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2733409077101986</v>
+        <v>0.2742042104477362</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>221</v>
@@ -4627,19 +4627,19 @@
         <v>264079</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>234282</v>
+        <v>237011</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>295772</v>
+        <v>298765</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2654966296501148</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2355396635291173</v>
+        <v>0.2382833967890188</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2973597795736735</v>
+        <v>0.3003686493042218</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>420</v>
@@ -4648,19 +4648,19 @@
         <v>446831</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>406504</v>
+        <v>410145</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>482108</v>
+        <v>484874</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2554771850680966</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2324196699736925</v>
+        <v>0.2345018106673963</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2756469803066262</v>
+        <v>0.2772283007300403</v>
       </c>
     </row>
     <row r="5">
@@ -4677,19 +4677,19 @@
         <v>45840</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>34266</v>
+        <v>32827</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>60349</v>
+        <v>58903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06076731523336874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04542439572332688</v>
+        <v>0.04351687573038978</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08000213949700133</v>
+        <v>0.07808445440913309</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>45</v>
@@ -4698,19 +4698,19 @@
         <v>50796</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37788</v>
+        <v>37500</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>68559</v>
+        <v>66964</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05106885993161612</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03799085430686733</v>
+        <v>0.03770174261492078</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06892714776989782</v>
+        <v>0.06732340797196232</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -4719,19 +4719,19 @@
         <v>96636</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>79352</v>
+        <v>77447</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>116868</v>
+        <v>116742</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05525180414700527</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04536995036871872</v>
+        <v>0.04428081480465779</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06681972459653442</v>
+        <v>0.0667478162109625</v>
       </c>
     </row>
     <row r="6">
@@ -4748,19 +4748,19 @@
         <v>3953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1189</v>
+        <v>976</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9456</v>
+        <v>9878</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00523967527336196</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.001575707868332191</v>
+        <v>0.001294187800138165</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01253517832664001</v>
+        <v>0.01309424900716073</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>6</v>
@@ -4769,19 +4769,19 @@
         <v>6028</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2165</v>
+        <v>2080</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12556</v>
+        <v>12390</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.006060010861667792</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.002176691191950379</v>
+        <v>0.002091433548837529</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01262371267617271</v>
+        <v>0.01245681370166399</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>10</v>
@@ -4790,19 +4790,19 @@
         <v>9980</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>4947</v>
+        <v>4829</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>18830</v>
+        <v>17852</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.005706200084897842</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.002828178905798938</v>
+        <v>0.002760928716440993</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01076590855701308</v>
+        <v>0.01020718154274458</v>
       </c>
     </row>
     <row r="7">
@@ -4822,7 +4822,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5320</v>
+        <v>5307</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.001404778424624301</v>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.007052547375272666</v>
+        <v>0.007035301297086867</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>7069</v>
+        <v>7002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.00202510567346376</v>
@@ -4852,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007107433630623331</v>
+        <v>0.007039800628969585</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -4864,16 +4864,16 @@
         <v>966</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>8720</v>
+        <v>8956</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001757558502656841</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0005521354769892118</v>
+        <v>0.0005525293906034395</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.004985905891433579</v>
+        <v>0.005120618400674188</v>
       </c>
     </row>
     <row r="8">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5196</v>
+        <v>5294</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.001391142448004727</v>
@@ -4902,7 +4902,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.006888449040584103</v>
+        <v>0.007018037896203857</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4862</v>
+        <v>5288</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0005999998014747882</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.002779707871272241</v>
+        <v>0.003023307451255695</v>
       </c>
     </row>
     <row r="9">
@@ -4953,19 +4953,19 @@
         <v>22083</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>14462</v>
+        <v>14774</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33849</v>
+        <v>31387</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02927376792742967</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01917128469168297</v>
+        <v>0.01958570695734386</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04487250669507356</v>
+        <v>0.0416079374646782</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -4974,19 +4974,19 @@
         <v>25870</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16255</v>
+        <v>16263</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36871</v>
+        <v>37755</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02600865797721687</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01634276747021188</v>
+        <v>0.016349861825921</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03706862318647306</v>
+        <v>0.03795731259995629</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>47</v>
@@ -4995,19 +4995,19 @@
         <v>47952</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>35352</v>
+        <v>36390</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>63914</v>
+        <v>63649</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02741690004813553</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02021243059376874</v>
+        <v>0.02080595594550811</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03654281010971241</v>
+        <v>0.03639139919882648</v>
       </c>
     </row>
     <row r="10">
@@ -5028,19 +5028,19 @@
         <v>101797</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>82576</v>
+        <v>82336</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>122971</v>
+        <v>121336</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04902610752114924</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03976909841578439</v>
+        <v>0.03965334168873335</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05922338371601784</v>
+        <v>0.05843622801353303</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>80</v>
@@ -5049,19 +5049,19 @@
         <v>100992</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>80956</v>
+        <v>81110</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122651</v>
+        <v>126845</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05079328461408148</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04071642836471546</v>
+        <v>0.04079357049202969</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06168652740495983</v>
+        <v>0.06379549579147739</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>179</v>
@@ -5070,19 +5070,19 @@
         <v>202789</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175925</v>
+        <v>175062</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>231761</v>
+        <v>234145</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04989054801339082</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04328125341896499</v>
+        <v>0.04306913826831571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05701826514404707</v>
+        <v>0.05760476322793765</v>
       </c>
     </row>
     <row r="11">
@@ -5099,19 +5099,19 @@
         <v>60227</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45152</v>
+        <v>45442</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>77267</v>
+        <v>78440</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02900555070569306</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.021745250249049</v>
+        <v>0.0218849172012426</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03721213111389508</v>
+        <v>0.03777725285325332</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>40</v>
@@ -5120,19 +5120,19 @@
         <v>43595</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>31212</v>
+        <v>30968</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>59748</v>
+        <v>58937</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02192561159008089</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01569768205279194</v>
+        <v>0.01557528891449557</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03004978564183245</v>
+        <v>0.02964166701066229</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>95</v>
@@ -5141,19 +5141,19 @@
         <v>103821</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>83425</v>
+        <v>83634</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>126367</v>
+        <v>126539</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02554229505428286</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02052429140432818</v>
+        <v>0.02057585720969489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03108899164247069</v>
+        <v>0.03113139387343117</v>
       </c>
     </row>
     <row r="12">
@@ -5170,19 +5170,19 @@
         <v>12750</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6849</v>
+        <v>7587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21959</v>
+        <v>23007</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006140703059632295</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00329868231761708</v>
+        <v>0.003654186428427999</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01057576063693508</v>
+        <v>0.01108022327151562</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>11</v>
@@ -5191,19 +5191,19 @@
         <v>11164</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>6235</v>
+        <v>5925</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>21550</v>
+        <v>19142</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.005614955815458612</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.003135834978030989</v>
+        <v>0.002980156222285866</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01083855457185214</v>
+        <v>0.009627518406394073</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -5212,19 +5212,19 @@
         <v>23915</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>15732</v>
+        <v>14893</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35040</v>
+        <v>34654</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005883526114341515</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003870315861507531</v>
+        <v>0.003664025566130543</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.008620616120916677</v>
+        <v>0.008525729467939468</v>
       </c>
     </row>
     <row r="13">
@@ -5241,19 +5241,19 @@
         <v>6064</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2138</v>
+        <v>2652</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12630</v>
+        <v>13175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00292051457958384</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001029603312375365</v>
+        <v>0.001277416962982461</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.006082717475180332</v>
+        <v>0.006345198507479167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -5262,19 +5262,19 @@
         <v>6459</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2584</v>
+        <v>2583</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>13999</v>
+        <v>13180</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.00324850231078424</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001299461581008852</v>
+        <v>0.001299331432854469</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.007040865388393456</v>
+        <v>0.006628528002453108</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -5283,19 +5283,19 @@
         <v>12523</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>6214</v>
+        <v>7001</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21422</v>
+        <v>21073</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.003080954569974178</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001528812410798945</v>
+        <v>0.001722302402729352</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.005270319777925492</v>
+        <v>0.005184439862486956</v>
       </c>
     </row>
     <row r="14">
@@ -5312,19 +5312,19 @@
         <v>8826</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4021</v>
+        <v>3770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>17355</v>
+        <v>16608</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004250648134042061</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.001936335467177965</v>
+        <v>0.001815871871379803</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.008358279295387674</v>
+        <v>0.007998710359401917</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -5333,19 +5333,19 @@
         <v>9503</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4745</v>
+        <v>4071</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18364</v>
+        <v>17241</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.004779325102003331</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.00238626949274632</v>
+        <v>0.002047454576009714</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.009236011810359922</v>
+        <v>0.008671061438003858</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>17</v>
@@ -5354,19 +5354,19 @@
         <v>18329</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>11182</v>
+        <v>10970</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>28083</v>
+        <v>28959</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004509258196524776</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002750979599423364</v>
+        <v>0.002698905632699481</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.006908955051781574</v>
+        <v>0.007124583176266769</v>
       </c>
     </row>
     <row r="15">
@@ -5383,19 +5383,19 @@
         <v>24089</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15294</v>
+        <v>15340</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>36446</v>
+        <v>35758</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.01160126436551217</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.007365907906037043</v>
+        <v>0.007388029337858156</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.01755265537225157</v>
+        <v>0.01722120824424384</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>23</v>
@@ -5404,19 +5404,19 @@
         <v>26284</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>17041</v>
+        <v>16338</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39972</v>
+        <v>38053</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01321917912436027</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.008570865863622372</v>
+        <v>0.008217258741904451</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.02010357828227356</v>
+        <v>0.0191382314973021</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>45</v>
@@ -5425,19 +5425,19 @@
         <v>50372</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>35605</v>
+        <v>36891</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>66287</v>
+        <v>66971</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01239269100641714</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008759688853255738</v>
+        <v>0.009075911116192116</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.01630813993503068</v>
+        <v>0.01647626913687766</v>
       </c>
     </row>
     <row r="16">
@@ -5458,19 +5458,19 @@
         <v>23452</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14957</v>
+        <v>15478</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>37339</v>
+        <v>37036</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04288327068826855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.027350135998316</v>
+        <v>0.02830230043451185</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06827536755696434</v>
+        <v>0.06772188196724221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -5479,19 +5479,19 @@
         <v>13685</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>6690</v>
+        <v>6440</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25757</v>
+        <v>24688</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02492090607220462</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01218318089579662</v>
+        <v>0.0117282384926975</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04690381691859901</v>
+        <v>0.04495843900465</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>32</v>
@@ -5500,19 +5500,19 @@
         <v>37137</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25269</v>
+        <v>26079</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>52154</v>
+        <v>53303</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03388361723031012</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02305515580830324</v>
+        <v>0.02379456642796851</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04758448051467518</v>
+        <v>0.04863284969292676</v>
       </c>
     </row>
     <row r="17">
@@ -5529,19 +5529,19 @@
         <v>11834</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5775</v>
+        <v>5935</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21147</v>
+        <v>21488</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.02163854240792308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01056001336620258</v>
+        <v>0.0108519539133338</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.03866742968487311</v>
+        <v>0.03929121876353912</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -5550,19 +5550,19 @@
         <v>12401</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>7051</v>
+        <v>6921</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22414</v>
+        <v>20591</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02258201886209385</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01284010780291206</v>
+        <v>0.0126027198499242</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04081695859713073</v>
+        <v>0.03749738457587607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -5571,19 +5571,19 @@
         <v>24235</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15675</v>
+        <v>15058</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>36619</v>
+        <v>36531</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0221112508355032</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01430155682956509</v>
+        <v>0.01373867799624714</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.0334106648511894</v>
+        <v>0.03333068845982373</v>
       </c>
     </row>
     <row r="18">
@@ -5600,19 +5600,19 @@
         <v>3685</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>885</v>
+        <v>903</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10660</v>
+        <v>10852</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006738622082783447</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001617858257281217</v>
+        <v>0.001651835270504363</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01949141820875775</v>
+        <v>0.01984341012619336</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>5</v>
@@ -5621,19 +5621,19 @@
         <v>5490</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1853</v>
+        <v>1819</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>13616</v>
+        <v>12953</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.009998198457103792</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.003374789691123684</v>
+        <v>0.0033118191845817</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.0247944440316297</v>
+        <v>0.0235884897504951</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -5642,19 +5642,19 @@
         <v>9176</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4495</v>
+        <v>4458</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>18897</v>
+        <v>18698</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.008371762174060575</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.004101568634192624</v>
+        <v>0.004067011157229646</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01724153449198231</v>
+        <v>0.01705935857357351</v>
       </c>
     </row>
     <row r="19">
@@ -5671,19 +5671,19 @@
         <v>5455</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1421</v>
+        <v>1570</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14415</v>
+        <v>13193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.009974888477417124</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002598899166844909</v>
+        <v>0.002869973404697642</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02635866396583022</v>
+        <v>0.02412432548458474</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -5692,19 +5692,19 @@
         <v>3216</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9163</v>
+        <v>9352</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.005856376237988141</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.001602303894382083</v>
+        <v>0.001593399309208966</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01668570916935115</v>
+        <v>0.01703025199365973</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>7</v>
@@ -5713,19 +5713,19 @@
         <v>8671</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3682</v>
+        <v>3286</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17303</v>
+        <v>17874</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.007911397188298466</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.003359100459501331</v>
+        <v>0.002998132549826581</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01578710660329212</v>
+        <v>0.01630837288112701</v>
       </c>
     </row>
     <row r="20">
@@ -5742,19 +5742,19 @@
         <v>4821</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1186</v>
+        <v>1068</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12246</v>
+        <v>12253</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.008815900767775827</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002169073942665258</v>
+        <v>0.001952743427970144</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02239293485832267</v>
+        <v>0.0224053840962109</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -5763,19 +5763,19 @@
         <v>9593</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4115</v>
+        <v>4585</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>18063</v>
+        <v>17466</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01746867707777297</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.007494377482928198</v>
+        <v>0.008349079747172618</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03289331124730076</v>
+        <v>0.0318054114037346</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>13</v>
@@ -5784,19 +5784,19 @@
         <v>14414</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>7419</v>
+        <v>8311</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>24261</v>
+        <v>23760</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01315118678961533</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.006769386981085465</v>
+        <v>0.007582424166536338</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02213504341631802</v>
+        <v>0.02167804525822817</v>
       </c>
     </row>
     <row r="21">
@@ -5813,19 +5813,19 @@
         <v>8576</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3931</v>
+        <v>3859</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>15187</v>
+        <v>16144</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01568167180358245</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.007188387934279564</v>
+        <v>0.007055536148399722</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.02776935296326501</v>
+        <v>0.02952001407071902</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>11</v>
@@ -5834,19 +5834,19 @@
         <v>11631</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6383</v>
+        <v>6117</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>20798</v>
+        <v>19429</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02118098887385785</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01162379235654122</v>
+        <v>0.011139648036982</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.03787300346277172</v>
+        <v>0.03538151633135467</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>20</v>
@@ -5855,19 +5855,19 @@
         <v>20207</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>12464</v>
+        <v>12286</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>30071</v>
+        <v>30805</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01843698542435444</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01137160955480844</v>
+        <v>0.01120924084830466</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02743651679272542</v>
+        <v>0.02810644367242282</v>
       </c>
     </row>
     <row r="22">
@@ -5888,19 +5888,19 @@
         <v>308002</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>277491</v>
+        <v>276406</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>340238</v>
+        <v>342066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0911890564222898</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.08215578878147053</v>
+        <v>0.08183474186763813</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1007331522998722</v>
+        <v>0.1012743554209407</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>312</v>
@@ -5909,19 +5909,19 @@
         <v>378756</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>343824</v>
+        <v>340257</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>418575</v>
+        <v>419141</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1072325897317667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09734274559676911</v>
+        <v>0.09633271436896758</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1185059337900009</v>
+        <v>0.1186660950451148</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>631</v>
@@ -5930,19 +5930,19 @@
         <v>686758</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>636856</v>
+        <v>640431</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>738806</v>
+        <v>741396</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09939016811484878</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09216822436453502</v>
+        <v>0.09268556827291002</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1069227325283309</v>
+        <v>0.1072976389789392</v>
       </c>
     </row>
     <row r="23">
@@ -5959,19 +5959,19 @@
         <v>117900</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>98546</v>
+        <v>98067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142695</v>
+        <v>141113</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.03490629794229653</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02917630865739828</v>
+        <v>0.02903442949068679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04224714369548624</v>
+        <v>0.04177888401310193</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>97</v>
@@ -5980,19 +5980,19 @@
         <v>106792</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>86793</v>
+        <v>86500</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>130166</v>
+        <v>128419</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0302345733671369</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02457272048288021</v>
+        <v>0.02448981313195386</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03685227001474929</v>
+        <v>0.03635766818187499</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>210</v>
@@ -6001,19 +6001,19 @@
         <v>224692</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>196448</v>
+        <v>194178</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>254194</v>
+        <v>257211</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03251821208248627</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02843066698061789</v>
+        <v>0.02810216738710862</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03678791698873658</v>
+        <v>0.03722446963467132</v>
       </c>
     </row>
     <row r="24">
@@ -6030,19 +6030,19 @@
         <v>20388</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>12540</v>
+        <v>12621</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>31888</v>
+        <v>32058</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.006036282210515299</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0037126773905563</v>
+        <v>0.003736611634246032</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.00944088881960815</v>
+        <v>0.00949137137345896</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>22</v>
@@ -6051,19 +6051,19 @@
         <v>22682</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>14553</v>
+        <v>14062</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>34525</v>
+        <v>34004</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.006421754495968112</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.004120219996828127</v>
+        <v>0.003981248903355624</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.009774705958552996</v>
+        <v>0.009627231413923132</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>41</v>
@@ -6072,19 +6072,19 @@
         <v>43071</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30083</v>
+        <v>29581</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>57610</v>
+        <v>57544</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.006233327412865901</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.004353750764283311</v>
+        <v>0.004281137603815629</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.008337502594987731</v>
+        <v>0.008327973783498399</v>
       </c>
     </row>
     <row r="25">
@@ -6101,19 +6101,19 @@
         <v>12579</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6197</v>
+        <v>6509</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22318</v>
+        <v>21947</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.003724202081166513</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.001834774656702527</v>
+        <v>0.001927207733119504</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.006607741103591089</v>
+        <v>0.006497820987389187</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>11</v>
@@ -6122,19 +6122,19 @@
         <v>11689</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>6000</v>
+        <v>6273</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>20756</v>
+        <v>20050</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.003309436294165698</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.001698792895073398</v>
+        <v>0.001775965935833218</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.005876391196526489</v>
+        <v>0.005676561647085988</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>22</v>
@@ -6143,19 +6143,19 @@
         <v>24268</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>15557</v>
+        <v>15500</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36489</v>
+        <v>37153</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.003512182666251438</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.002251410995750012</v>
+        <v>0.002243191528716372</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.005280790625254565</v>
+        <v>0.005376902754573773</v>
       </c>
     </row>
     <row r="26">
@@ -6172,19 +6172,19 @@
         <v>14697</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>7797</v>
+        <v>8317</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25337</v>
+        <v>25060</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.004351196780826134</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.002308325387645948</v>
+        <v>0.002462321380275011</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.007501384798221373</v>
+        <v>0.007419312850352903</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>18</v>
@@ -6193,19 +6193,19 @@
         <v>19095</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11516</v>
+        <v>10583</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30318</v>
+        <v>30334</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.005406269650666087</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.003260264274506627</v>
+        <v>0.002996168008971943</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.008583567592674955</v>
+        <v>0.008588033352129097</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>31</v>
@@ -6214,19 +6214,19 @@
         <v>33792</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>22361</v>
+        <v>22431</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>48353</v>
+        <v>48410</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.004890527505700498</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003236135512948874</v>
+        <v>0.00324627396218072</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.006997803592945732</v>
+        <v>0.00700608282190297</v>
       </c>
     </row>
     <row r="27">
@@ -6243,19 +6243,19 @@
         <v>54747</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>41361</v>
+        <v>40164</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>70134</v>
+        <v>70213</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01620886515131551</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01224547310763252</v>
+        <v>0.01189128417397446</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02076420807046421</v>
+        <v>0.02078762766348874</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>57</v>
@@ -6264,19 +6264,19 @@
         <v>63785</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>49668</v>
+        <v>48785</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>82203</v>
+        <v>81968</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.01805860437937589</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.01406196454462959</v>
+        <v>0.0138119516985261</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.02327299423948625</v>
+        <v>0.02320672478868238</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>112</v>
@@ -6285,19 +6285,19 @@
         <v>118532</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>95954</v>
+        <v>96576</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>140887</v>
+        <v>142022</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.01715441235209765</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.01388684850971032</v>
+        <v>0.01397682613939151</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.02038964778002114</v>
+        <v>0.02055398211704935</v>
       </c>
     </row>
     <row r="28">
@@ -6557,19 +6557,19 @@
         <v>190432</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>171904</v>
+        <v>170717</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>211489</v>
+        <v>211436</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3291654574501133</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2971395496024774</v>
+        <v>0.2950888231799339</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3655632787206938</v>
+        <v>0.3654708759364977</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>676</v>
@@ -6578,19 +6578,19 @@
         <v>353487</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>331738</v>
+        <v>332576</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>374669</v>
+        <v>375518</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.4300125444190822</v>
+        <v>0.430012544419082</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4035559658354808</v>
+        <v>0.4045755281105831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4557806136708982</v>
+        <v>0.4568139777473086</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>966</v>
@@ -6599,19 +6599,19 @@
         <v>543918</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>513385</v>
+        <v>516347</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>572902</v>
+        <v>573051</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.3883558478668572</v>
+        <v>0.388355847866857</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3665548425044037</v>
+        <v>0.3686696781504564</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4090501413721535</v>
+        <v>0.4091564535982061</v>
       </c>
     </row>
     <row r="5">
@@ -6628,19 +6628,19 @@
         <v>54333</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>43146</v>
+        <v>42133</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>67908</v>
+        <v>68369</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.09391507969232739</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07457839497231217</v>
+        <v>0.07282710732368061</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1173810426349831</v>
+        <v>0.1181780402851765</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>178</v>
@@ -6649,19 +6649,19 @@
         <v>99848</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>85268</v>
+        <v>86800</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113699</v>
+        <v>114522</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1214641949293669</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1037276001348326</v>
+        <v>0.1055908322963706</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1383141487400955</v>
+        <v>0.1393145685037801</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>249</v>
@@ -6670,19 +6670,19 @@
         <v>154181</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>136836</v>
+        <v>136800</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>173299</v>
+        <v>173761</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.110084539173274</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09770022815682131</v>
+        <v>0.09767458015853279</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1237351823289532</v>
+        <v>0.1240644548475756</v>
       </c>
     </row>
     <row r="6">
@@ -6699,19 +6699,19 @@
         <v>7601</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3143</v>
+        <v>3350</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15816</v>
+        <v>15887</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01313867660359477</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005432184570578128</v>
+        <v>0.005790826464748792</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02733913472603106</v>
+        <v>0.02746165682144268</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -6720,19 +6720,19 @@
         <v>7376</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3899</v>
+        <v>3940</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>12349</v>
+        <v>12750</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.008972529748006117</v>
+        <v>0.008972529748006119</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.004743637130091288</v>
+        <v>0.004793503562765807</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01502222187021406</v>
+        <v>0.01551040649194995</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>19</v>
@@ -6741,19 +6741,19 @@
         <v>14977</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9210</v>
+        <v>8601</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>23237</v>
+        <v>23012</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01069343136818544</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006575570152910808</v>
+        <v>0.006140906553429708</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01659084506655974</v>
+        <v>0.01643018731169586</v>
       </c>
     </row>
     <row r="7">
@@ -6770,19 +6770,19 @@
         <v>3228</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>920</v>
+        <v>931</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9108</v>
+        <v>10641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005579525665519647</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001591078312456194</v>
+        <v>0.001608408322026645</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01574405066647465</v>
+        <v>0.01839313154824695</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -6791,19 +6791,19 @@
         <v>4904</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2405</v>
+        <v>2269</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9537</v>
+        <v>9316</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005966063353784578</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002925360790245994</v>
+        <v>0.002760690231979397</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01160165281026605</v>
+        <v>0.01133302621488482</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>11</v>
@@ -6812,19 +6812,19 @@
         <v>8132</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4281</v>
+        <v>3802</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15014</v>
+        <v>14927</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.00580639703450849</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.003056690469190241</v>
+        <v>0.002714312432622028</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01071964551002193</v>
+        <v>0.0106577045815125</v>
       </c>
     </row>
     <row r="8">
@@ -6844,7 +6844,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8133</v>
+        <v>8650</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003989884794305331</v>
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01405743386781601</v>
+        <v>0.01495175817202511</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>5</v>
@@ -6862,19 +6862,19 @@
         <v>3746</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1197</v>
+        <v>1282</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9095</v>
+        <v>8213</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.004556984968690932</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.001455616271391383</v>
+        <v>0.001559825678684394</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01106342711079437</v>
+        <v>0.009990914932390025</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -6883,19 +6883,19 @@
         <v>6054</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2549</v>
+        <v>2522</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13625</v>
+        <v>12387</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.004322734078664094</v>
+        <v>0.004322734078664093</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.001820074141275339</v>
+        <v>0.001801039965816948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.009728530925933072</v>
+        <v>0.008844479735703957</v>
       </c>
     </row>
     <row r="9">
@@ -6912,19 +6912,19 @@
         <v>41967</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>31601</v>
+        <v>31321</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>53696</v>
+        <v>54353</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.07254018905222055</v>
+        <v>0.07254018905222057</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05462362757654546</v>
+        <v>0.05413904342328606</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09281393849112853</v>
+        <v>0.09395003764123873</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>101</v>
@@ -6933,19 +6933,19 @@
         <v>59158</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>48389</v>
+        <v>47958</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>72585</v>
+        <v>70627</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07196529704015608</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05886490817696761</v>
+        <v>0.05834091264326939</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08829886492858638</v>
+        <v>0.08591711545090049</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>150</v>
@@ -6954,19 +6954,19 @@
         <v>101125</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>84509</v>
+        <v>86274</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>117731</v>
+        <v>118048</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07220276648837363</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06033910050373376</v>
+        <v>0.06159914666202449</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08405985352848253</v>
+        <v>0.08428562746174777</v>
       </c>
     </row>
     <row r="10">
@@ -6987,19 +6987,19 @@
         <v>186192</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>165796</v>
+        <v>162558</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>212008</v>
+        <v>212569</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08347295440492453</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07432917742651304</v>
+        <v>0.07287759379025463</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09504674586702098</v>
+        <v>0.09529845490695803</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>347</v>
@@ -7008,19 +7008,19 @@
         <v>190578</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>170225</v>
+        <v>168412</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>211973</v>
+        <v>212528</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.08776759801400683</v>
+        <v>0.08776759801400684</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07839418907494874</v>
+        <v>0.07755940931350006</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09762067674924457</v>
+        <v>0.09787642569446325</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>606</v>
@@ -7029,19 +7029,19 @@
         <v>376770</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>343273</v>
+        <v>346917</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>405892</v>
+        <v>411368</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08559141039948145</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07798188625812177</v>
+        <v>0.07880964796855276</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09220708375683151</v>
+        <v>0.0934510473245095</v>
       </c>
     </row>
     <row r="11">
@@ -7058,19 +7058,19 @@
         <v>110897</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92207</v>
+        <v>92361</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>134531</v>
+        <v>133933</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04971714094715825</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04133796335245129</v>
+        <v>0.04140691971029792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.06031250187333643</v>
+        <v>0.06004429362730963</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -7079,19 +7079,19 @@
         <v>99892</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85742</v>
+        <v>84641</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>117927</v>
+        <v>117584</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.04600381891683524</v>
+        <v>0.04600381891683523</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03948706635117939</v>
+        <v>0.03897991838030601</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0543092743439768</v>
+        <v>0.05415160216632837</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>286</v>
@@ -7100,19 +7100,19 @@
         <v>210790</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184344</v>
+        <v>186171</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>238892</v>
+        <v>238485</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.04788543847521807</v>
+        <v>0.04788543847521806</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04187772346387663</v>
+        <v>0.04229273005666382</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05426941624477851</v>
+        <v>0.05417699489625556</v>
       </c>
     </row>
     <row r="12">
@@ -7129,19 +7129,19 @@
         <v>11293</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5765</v>
+        <v>5525</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23839</v>
+        <v>22220</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005062835709875895</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002584601246863809</v>
+        <v>0.002476816464022627</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01068761781000741</v>
+        <v>0.009961622543115899</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>41</v>
@@ -7150,19 +7150,19 @@
         <v>30719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>21596</v>
+        <v>22704</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>41912</v>
+        <v>43371</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.01414698471023165</v>
+        <v>0.01414698471023164</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.009945594633638163</v>
+        <v>0.01045579013482158</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01930169989936631</v>
+        <v>0.01997382007051707</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>51</v>
@@ -7171,19 +7171,19 @@
         <v>42012</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>31577</v>
+        <v>31309</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>57987</v>
+        <v>55416</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.009543852450020323</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.007173408818975825</v>
+        <v>0.007112562339837473</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01317304805665322</v>
+        <v>0.01258900198877232</v>
       </c>
     </row>
     <row r="13">
@@ -7200,19 +7200,19 @@
         <v>16364</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9592</v>
+        <v>8907</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>27204</v>
+        <v>27136</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.007336469657350349</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004300249822878485</v>
+        <v>0.00399315132608833</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01219621212677186</v>
+        <v>0.01216570411086085</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>28</v>
@@ -7221,19 +7221,19 @@
         <v>25393</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16392</v>
+        <v>17162</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>38188</v>
+        <v>39597</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.0116943260510678</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.00754886905195929</v>
+        <v>0.007903734818826171</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01758678639003475</v>
+        <v>0.0182356223822575</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>42</v>
@@ -7242,19 +7242,19 @@
         <v>41757</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29856</v>
+        <v>28928</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>57684</v>
+        <v>57048</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.009486107168869436</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.00678238083090853</v>
+        <v>0.006571506286022102</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01310406761671557</v>
+        <v>0.01295970357493571</v>
       </c>
     </row>
     <row r="14">
@@ -7271,19 +7271,19 @@
         <v>54517</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>40333</v>
+        <v>39998</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>73029</v>
+        <v>74498</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.024440769785495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01808189613895768</v>
+        <v>0.01793185474748107</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03273995434448061</v>
+        <v>0.03339882477250523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>88</v>
@@ -7292,19 +7292,19 @@
         <v>66009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52997</v>
+        <v>52363</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>81000</v>
+        <v>81735</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03039942280472925</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0244069694354567</v>
+        <v>0.02411515144866776</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03730326730469252</v>
+        <v>0.0376416781454751</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>138</v>
@@ -7313,19 +7313,19 @@
         <v>120526</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>101009</v>
+        <v>99601</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>143832</v>
+        <v>141932</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02738004609270387</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02294630811447178</v>
+        <v>0.02262644418387962</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03267465121387639</v>
+        <v>0.03224294112721227</v>
       </c>
     </row>
     <row r="15">
@@ -7342,19 +7342,19 @@
         <v>173302</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>146245</v>
+        <v>148103</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>200846</v>
+        <v>198589</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.07769416261520107</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06556401093604158</v>
+        <v>0.06639702664353572</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.09004241702193658</v>
+        <v>0.08903061338349209</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>243</v>
@@ -7363,19 +7363,19 @@
         <v>168672</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>148170</v>
+        <v>145262</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>190939</v>
+        <v>190282</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.07767909853176384</v>
+        <v>0.07767909853176383</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.06823727341980085</v>
+        <v>0.06689810175220137</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08793409284392324</v>
+        <v>0.08763127200068896</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>413</v>
@@ -7384,19 +7384,19 @@
         <v>341974</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>309782</v>
+        <v>308806</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>377204</v>
+        <v>375840</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.07768673182448478</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07037362832884908</v>
+        <v>0.07015195765866557</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.08568995231312036</v>
+        <v>0.0853802541735017</v>
       </c>
     </row>
     <row r="16">
@@ -7417,19 +7417,19 @@
         <v>84688</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69736</v>
+        <v>69439</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>102232</v>
+        <v>99889</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1190123611902235</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09800015439032345</v>
+        <v>0.09758301227914687</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1436672883782316</v>
+        <v>0.1403747007028265</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>102</v>
@@ -7438,19 +7438,19 @@
         <v>57621</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45863</v>
+        <v>47303</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69196</v>
+        <v>69370</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07840958225704615</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06240862352831511</v>
+        <v>0.06436884233317221</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.09416027191045451</v>
+        <v>0.09439690634344924</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>215</v>
@@ -7459,19 +7459,19 @@
         <v>142309</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123422</v>
+        <v>123003</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161449</v>
+        <v>162235</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.09838408883542819</v>
+        <v>0.09838408883542817</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08532696869813644</v>
+        <v>0.08503709672558044</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1116164256697031</v>
+        <v>0.1121600531960629</v>
       </c>
     </row>
     <row r="17">
@@ -7488,19 +7488,19 @@
         <v>31872</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>22537</v>
+        <v>22700</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>43314</v>
+        <v>44509</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.04478996354134667</v>
+        <v>0.04478996354134666</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03167131749915472</v>
+        <v>0.03190113706705175</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.06087017711382669</v>
+        <v>0.06254825094110095</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>52</v>
@@ -7509,19 +7509,19 @@
         <v>35152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>26367</v>
+        <v>26886</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45726</v>
+        <v>45680</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04783356126660486</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03587886515734127</v>
+        <v>0.03658547514203003</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06222238582513661</v>
+        <v>0.06216007547398052</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>88</v>
@@ -7530,19 +7530,19 @@
         <v>67024</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>53537</v>
+        <v>54844</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>82482</v>
+        <v>82935</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04633626565328806</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0370122179896428</v>
+        <v>0.03791585803535966</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05702291698400454</v>
+        <v>0.05733648142604329</v>
       </c>
     </row>
     <row r="18">
@@ -7559,19 +7559,19 @@
         <v>4149</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1460</v>
+        <v>1481</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8823</v>
+        <v>9849</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.005830670814269558</v>
+        <v>0.005830670814269557</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002051786469925571</v>
+        <v>0.002080777606882948</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01239940697512442</v>
+        <v>0.01384120422930578</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -7580,19 +7580,19 @@
         <v>11186</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>6411</v>
+        <v>6178</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19737</v>
+        <v>18085</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.01522216610269169</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.008723935724156511</v>
+        <v>0.008407300936170863</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02685744229499367</v>
+        <v>0.02460941514003176</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>19</v>
@@ -7601,19 +7601,19 @@
         <v>15335</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9391</v>
+        <v>10224</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>23292</v>
+        <v>24027</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.01060202705437282</v>
+        <v>0.01060202705437281</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.006492519964363326</v>
+        <v>0.007068287336876806</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01610244765862474</v>
+        <v>0.0166105447909821</v>
       </c>
     </row>
     <row r="19">
@@ -7630,19 +7630,19 @@
         <v>13279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6128</v>
+        <v>6830</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>24580</v>
+        <v>24847</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01866173092810842</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008612006111193034</v>
+        <v>0.009598043426735359</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03454210580998045</v>
+        <v>0.03491798242408071</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>13</v>
@@ -7651,19 +7651,19 @@
         <v>8865</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>4780</v>
+        <v>4832</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>14877</v>
+        <v>14932</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01206270659029113</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00650398089464832</v>
+        <v>0.006575450255540312</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02024411744382967</v>
+        <v>0.02031908785864093</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -7672,19 +7672,19 @@
         <v>22144</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>13752</v>
+        <v>14258</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>35613</v>
+        <v>33927</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.01530909165333243</v>
+        <v>0.01530909165333242</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.009507099869743501</v>
+        <v>0.009856848532279364</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02462103115800718</v>
+        <v>0.02345510218657125</v>
       </c>
     </row>
     <row r="20">
@@ -7701,19 +7701,19 @@
         <v>37982</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26518</v>
+        <v>26886</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50573</v>
+        <v>52411</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.05337644381946434</v>
+        <v>0.05337644381946433</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03726619473664136</v>
+        <v>0.03778371601435176</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07107081303211171</v>
+        <v>0.07365416581042375</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -7722,19 +7722,19 @@
         <v>47647</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36543</v>
+        <v>36211</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>63106</v>
+        <v>62076</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06483607612687289</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04972693785345171</v>
+        <v>0.0492744157649029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08587267709990985</v>
+        <v>0.08447138252206586</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>98</v>
@@ -7743,19 +7743,19 @@
         <v>85629</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>67847</v>
+        <v>69586</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>102899</v>
+        <v>105321</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05919851862651342</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04690553727086825</v>
+        <v>0.048107680576703</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07113828780960951</v>
+        <v>0.07281283707954979</v>
       </c>
     </row>
     <row r="21">
@@ -7772,19 +7772,19 @@
         <v>59167</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>46747</v>
+        <v>46770</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>76748</v>
+        <v>76234</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.08314807920886713</v>
+        <v>0.08314807920886712</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06569466286860036</v>
+        <v>0.06572664241891024</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1078547723032485</v>
+        <v>0.1071327276024288</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>92</v>
@@ -7793,19 +7793,19 @@
         <v>64919</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>51878</v>
+        <v>53111</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>79792</v>
+        <v>78221</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08833976506841387</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07059475714491177</v>
+        <v>0.07227253294223447</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1085791898841258</v>
+        <v>0.1064414190636128</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>157</v>
@@ -7814,19 +7814,19 @@
         <v>124086</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>105299</v>
+        <v>105468</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>146287</v>
+        <v>144710</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.08578571911197634</v>
+        <v>0.08578571911197633</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.07279727308784346</v>
+        <v>0.0729143534014159</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1011345144748011</v>
+        <v>0.100043721292328</v>
       </c>
     </row>
     <row r="22">
@@ -7847,19 +7847,19 @@
         <v>461312</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>423211</v>
+        <v>426548</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>494518</v>
+        <v>498916</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1310289915149022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.120206994260115</v>
+        <v>0.1211550174718097</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.140460824420907</v>
+        <v>0.1417099547281351</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1125</v>
@@ -7868,19 +7868,19 @@
         <v>601686</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>565176</v>
+        <v>569159</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>636751</v>
+        <v>637572</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1613831271002776</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1515905487047658</v>
+        <v>0.152658742028957</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1707881706946896</v>
+        <v>0.1710083763321995</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1787</v>
@@ -7889,19 +7889,19 @@
         <v>1062997</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1014560</v>
+        <v>1012094</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1115401</v>
+        <v>1114658</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.14664075859386</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1399588130946204</v>
+        <v>0.1396186357729312</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1538698076738995</v>
+        <v>0.1537672901875776</v>
       </c>
     </row>
     <row r="23">
@@ -7918,19 +7918,19 @@
         <v>197102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>171957</v>
+        <v>172744</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>223636</v>
+        <v>224376</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.05598401967029881</v>
+        <v>0.05598401967029882</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.04884186692172025</v>
+        <v>0.04906548516883493</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.06352048990867547</v>
+        <v>0.06373071082372196</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>391</v>
@@ -7939,19 +7939,19 @@
         <v>234892</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>212595</v>
+        <v>209891</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>260526</v>
+        <v>258419</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.06300239709445396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05702195936242304</v>
+        <v>0.05629663862099182</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06987783457109367</v>
+        <v>0.06931259276631749</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>623</v>
@@ -7960,19 +7960,19 @@
         <v>431994</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>396225</v>
+        <v>397952</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>468863</v>
+        <v>466879</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05959371803610952</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05465937753423555</v>
+        <v>0.05489760931917425</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06467982880691669</v>
+        <v>0.06440613284849762</v>
       </c>
     </row>
     <row r="24">
@@ -7989,19 +7989,19 @@
         <v>23043</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14940</v>
+        <v>14637</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>36347</v>
+        <v>36672</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.006545074619382253</v>
+        <v>0.006545074619382254</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.004243549961145746</v>
+        <v>0.004157550440407757</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01032377846237266</v>
+        <v>0.0104160932582236</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>67</v>
@@ -8010,19 +8010,19 @@
         <v>49281</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>38515</v>
+        <v>38010</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>62009</v>
+        <v>63113</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.01321801848574471</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01033040873128528</v>
+        <v>0.01019500970592706</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01663200426866857</v>
+        <v>0.01692798100358126</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>89</v>
@@ -8031,19 +8031,19 @@
         <v>72324</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>58037</v>
+        <v>56589</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>91181</v>
+        <v>89046</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.009977109278369639</v>
+        <v>0.009977109278369643</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.008006192531788168</v>
+        <v>0.007806455544430362</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01257849478545405</v>
+        <v>0.01228392381752593</v>
       </c>
     </row>
     <row r="25">
@@ -8060,19 +8060,19 @@
         <v>32872</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>21623</v>
+        <v>21250</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48242</v>
+        <v>47155</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.009336782037693503</v>
+        <v>0.009336782037693501</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.006141634204056934</v>
+        <v>0.006035685078167683</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01370254905281528</v>
+        <v>0.01339362200693858</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>49</v>
@@ -8081,19 +8081,19 @@
         <v>39162</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>29027</v>
+        <v>27944</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>54995</v>
+        <v>53866</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.01050393748273122</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.007785649347361961</v>
+        <v>0.007495191512264845</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01475067716152135</v>
+        <v>0.01444778941978286</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>77</v>
@@ -8102,19 +8102,19 @@
         <v>72034</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>55475</v>
+        <v>57232</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>89740</v>
+        <v>91770</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.009937074505308535</v>
+        <v>0.009937074505308533</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.007652822102972278</v>
+        <v>0.007895234084358082</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0123795899595545</v>
+        <v>0.01265970794772698</v>
       </c>
     </row>
     <row r="26">
@@ -8131,19 +8131,19 @@
         <v>94807</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77292</v>
+        <v>75103</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>118232</v>
+        <v>115939</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02692858611054174</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02195373281855644</v>
+        <v>0.0213320371048914</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03358204285894451</v>
+        <v>0.03293082673451161</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>154</v>
@@ -8152,19 +8152,19 @@
         <v>117402</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>99941</v>
+        <v>98870</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>137332</v>
+        <v>138320</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03148926109894695</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02680611565473025</v>
+        <v>0.02651877165836131</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0368348792417752</v>
+        <v>0.03709999685655394</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>243</v>
@@ -8173,19 +8173,19 @@
         <v>212209</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>187109</v>
+        <v>184966</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>242995</v>
+        <v>242593</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02927423668726628</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02581173120567081</v>
+        <v>0.02551605562655919</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03352121923454852</v>
+        <v>0.03346574162953969</v>
       </c>
     </row>
     <row r="27">
@@ -8202,19 +8202,19 @@
         <v>274436</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>245361</v>
+        <v>244603</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>308651</v>
+        <v>311164</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.0779495707593016</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0696913992689748</v>
+        <v>0.06947612236053737</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08766785789761353</v>
+        <v>0.08838178760297366</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>436</v>
@@ -8223,19 +8223,19 @@
         <v>292749</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>266864</v>
+        <v>266893</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>323702</v>
+        <v>320775</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.07852058511750479</v>
+        <v>0.0785205851175048</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.07157787360406169</v>
+        <v>0.07158547602651984</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.08682275814344674</v>
+        <v>0.0860378160080038</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>720</v>
@@ -8244,19 +8244,19 @@
         <v>567185</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>526428</v>
+        <v>522205</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>611760</v>
+        <v>613245</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.07824325539195849</v>
+        <v>0.0782432553919585</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.07262093936056162</v>
+        <v>0.07203829758334873</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.08439247735812914</v>
+        <v>0.08459734068462607</v>
       </c>
     </row>
     <row r="28">
